--- a/xlsx/裨治文_intext.xlsx
+++ b/xlsx/裨治文_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%83%A8%E6%9C%83</t>
   </si>
   <si>
-    <t>美部會</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_裨治文</t>
+    <t>美部会</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_裨治文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%95%99%E5%A3%AB</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%8F%A2%E5%A0%B1</t>
   </si>
   <si>
-    <t>中國叢報</t>
+    <t>中国丛报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%A6</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%BE%8E%E8%81%AF%E9%82%A6%E5%BF%97%E7%95%A5</t>
   </si>
   <si>
-    <t>大美聯邦志略</t>
+    <t>大美联邦志略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%93%AE</t>
   </si>
   <si>
-    <t>麥蓮</t>
+    <t>麦莲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E5%A4%A9%E5%9B%BD</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CiNii</t>
